--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t xml:space="preserve">Module </t>
   </si>
@@ -428,7 +428,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -534,9 +534,6 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
